--- a/g3p w 2h and 13c label_cor.xlsx
+++ b/g3p w 2h and 13c label_cor.xlsx
@@ -3821,31 +3821,31 @@
         <v>130</v>
       </c>
       <c r="D2" s="0">
-        <v>840922.53999999992</v>
+        <v>860450.3554662891</v>
       </c>
       <c r="E2" s="0">
-        <v>1036567.1599999999</v>
+        <v>1059403.3837804156</v>
       </c>
       <c r="F2" s="0">
-        <v>819615</v>
+        <v>834854.59445048287</v>
       </c>
       <c r="G2" s="0">
-        <v>750257.5</v>
+        <v>768317.79438457056</v>
       </c>
       <c r="H2" s="0">
-        <v>760558.14999999991</v>
+        <v>775871.15500401566</v>
       </c>
       <c r="I2" s="0">
-        <v>508134.44</v>
+        <v>516798.98892033659</v>
       </c>
       <c r="J2" s="0">
-        <v>913458.24999999988</v>
+        <v>934484.19424238731</v>
       </c>
       <c r="K2" s="0">
-        <v>319835.37999999995</v>
+        <v>324523.05571991223</v>
       </c>
       <c r="L2" s="0">
-        <v>2497.8800000000001</v>
+        <v>2584.544394579073</v>
       </c>
     </row>
   </sheetData>

--- a/g3p w 2h and 13c label_cor.xlsx
+++ b/g3p w 2h and 13c label_cor.xlsx
@@ -17,7 +17,847 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="420">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
   <si>
     <t>label</t>
   </si>
@@ -513,76 +1353,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>285</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>41</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
@@ -606,19 +1446,19 @@
         <v>0.77384799999999998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>288</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M2" s="0">
         <v>0.29099999999999998</v>
@@ -679,16 +1519,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M3" s="0">
         <v>0.29399999999999998</v>
@@ -749,16 +1589,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M4" s="0">
         <v>0.27200000000000002</v>
@@ -819,16 +1659,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M5" s="0">
         <v>0.26700000000000002</v>
@@ -889,16 +1729,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M6" s="0">
         <v>0.27700000000000002</v>
@@ -959,16 +1799,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M7" s="0">
         <v>0.29999999999999999</v>
@@ -1029,16 +1869,16 @@
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M8" s="0">
         <v>0.27200000000000002</v>
@@ -1099,16 +1939,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M9" s="0">
         <v>0.27700000000000002</v>
@@ -1169,16 +2009,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M10" s="0">
         <v>0.26000000000000001</v>
@@ -1239,16 +2079,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M11" s="0">
         <v>0.27800000000000002</v>
@@ -1309,16 +2149,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M12" s="0">
         <v>0.29799999999999999</v>
@@ -1379,16 +2219,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M13" s="0">
         <v>0.27900000000000003</v>
@@ -1449,16 +2289,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M14" s="0">
         <v>0.252</v>
@@ -1519,16 +2359,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M15" s="0">
         <v>0.316</v>
@@ -1604,76 +2444,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>326</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>328</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
@@ -1697,19 +2537,19 @@
         <v>0.77384799999999998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M2" s="0">
         <v>0.29099999999999998</v>
@@ -1770,16 +2610,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>53</v>
+        <v>333</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M3" s="0">
         <v>0.29399999999999998</v>
@@ -1840,16 +2680,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>54</v>
+        <v>334</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M4" s="0">
         <v>0.27200000000000002</v>
@@ -1910,16 +2750,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M5" s="0">
         <v>0.26700000000000002</v>
@@ -1980,16 +2820,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M6" s="0">
         <v>0.27700000000000002</v>
@@ -2050,16 +2890,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>57</v>
+        <v>337</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M7" s="0">
         <v>0.29999999999999999</v>
@@ -2120,16 +2960,16 @@
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M8" s="0">
         <v>0.27200000000000002</v>
@@ -2190,16 +3030,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M9" s="0">
         <v>0.27700000000000002</v>
@@ -2260,16 +3100,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M10" s="0">
         <v>0.26000000000000001</v>
@@ -2330,16 +3170,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M11" s="0">
         <v>0.27800000000000002</v>
@@ -2400,16 +3240,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M12" s="0">
         <v>0.29799999999999999</v>
@@ -2470,16 +3310,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M13" s="0">
         <v>0.27900000000000003</v>
@@ -2540,16 +3380,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M14" s="0">
         <v>0.252</v>
@@ -2610,16 +3450,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="M15" s="0">
         <v>0.316</v>
@@ -2695,76 +3535,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>364</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>365</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>366</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>367</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>371</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>373</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>112</v>
+        <v>392</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>115</v>
+        <v>395</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>125</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2">
@@ -2788,19 +3628,19 @@
         <v>0.77384799999999998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>94</v>
+        <v>374</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M2" s="0">
         <v>0.29099999999999998</v>
@@ -2861,16 +3701,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M3" s="0">
         <v>0.29399999999999998</v>
@@ -2931,16 +3771,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>96</v>
+        <v>376</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M4" s="0">
         <v>0.27200000000000002</v>
@@ -3001,16 +3841,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M5" s="0">
         <v>0.26700000000000002</v>
@@ -3071,16 +3911,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M6" s="0">
         <v>0.27700000000000002</v>
@@ -3141,16 +3981,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>99</v>
+        <v>379</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M7" s="0">
         <v>0.29999999999999999</v>
@@ -3211,16 +4051,16 @@
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M8" s="0">
         <v>0.27200000000000002</v>
@@ -3281,16 +4121,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M9" s="0">
         <v>0.27700000000000002</v>
@@ -3351,16 +4191,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M10" s="0">
         <v>0.26000000000000001</v>
@@ -3421,16 +4261,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>103</v>
+        <v>383</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M11" s="0">
         <v>0.27800000000000002</v>
@@ -3491,16 +4331,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>104</v>
+        <v>384</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M12" s="0">
         <v>0.29799999999999999</v>
@@ -3561,16 +4401,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M13" s="0">
         <v>0.27900000000000003</v>
@@ -3631,16 +4471,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>106</v>
+        <v>386</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M14" s="0">
         <v>0.252</v>
@@ -3701,16 +4541,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M15" s="0">
         <v>0.316</v>
@@ -3774,40 +4614,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>406</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
+        <v>412</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
@@ -3815,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="D2" s="0">
         <v>860450.3554662891</v>
